--- a/Draft Thesis/Final Data.xlsx
+++ b/Draft Thesis/Final Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/003d30ebf67359f6/Documents/Project/S1 Thesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/003d30ebf67359f6/Documents/Project/S1 Thesis/S1-Thesis-Github/Draft Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{2F93C795-D332-4294-A4CE-FBD1D5C1024C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0AE6FDD3-3F72-4B40-AE77-173CDDBFCE9D}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="8_{2F93C795-D332-4294-A4CE-FBD1D5C1024C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{044D8102-88C1-49DA-8E8D-056F048C2579}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{18556891-EA70-4C23-AF0A-5D4657811790}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>MSE</t>
   </si>
@@ -111,6 +111,42 @@
   <si>
     <t>AP -  (Precip + CC+WindDir)</t>
   </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>Indeks Panas</t>
+  </si>
+  <si>
+    <t>Presipitasi</t>
+  </si>
+  <si>
+    <t>Kecepatan Angin</t>
+  </si>
+  <si>
+    <t>Arah Angin</t>
+  </si>
+  <si>
+    <t>Visibilitas</t>
+  </si>
+  <si>
+    <t>Tutupan Awan</t>
+  </si>
+  <si>
+    <t>Kelembapan Relatif</t>
+  </si>
+  <si>
+    <t>Mean 11</t>
+  </si>
+  <si>
+    <t>Mean 30</t>
+  </si>
+  <si>
+    <t>Mean 60</t>
+  </si>
+  <si>
+    <t>Mean All</t>
+  </si>
 </sst>
 </file>
 
@@ -153,8 +189,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -164,7 +201,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,7 +262,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Temperature</a:t>
+              <a:t>Temperatur</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -322,40 +360,40 @@
             <c:numRef>
               <c:f>MSE!$B$4:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.48945162852933</c:v>
+                  <c:v>1.220430919195892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.78025867122679</c:v>
+                  <c:v>1.3342633440317508</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.66729184165028</c:v>
+                  <c:v>1.2912365552640925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1767397704745599</c:v>
+                  <c:v>1.0847763688772722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4803426095762799</c:v>
+                  <c:v>1.2166933095798136</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.65903927076179</c:v>
+                  <c:v>1.2880369834604091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1248296962790501</c:v>
+                  <c:v>1.0605798867973359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97887791926211798</c:v>
+                  <c:v>0.98938259498644809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.6432624825092801</c:v>
+                  <c:v>1.2818980000410642</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95172569410147401</c:v>
+                  <c:v>0.97556429521660637</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.65903927076179</c:v>
+                  <c:v>1.2880369834604091</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,6 +420,8 @@
         <c:axId val="1546594608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -399,6 +439,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -438,6 +534,8 @@
         <c:crossAx val="1546596272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1546596272"/>
@@ -460,7 +558,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -588,7 +742,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Heat Index</a:t>
+              <a:t>Indeks Panas</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -672,40 +826,40 @@
             <c:numRef>
               <c:f>MSE!$B$5:$L$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.4124135058023399</c:v>
+                  <c:v>1.8472719090059102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4756036303206104</c:v>
+                  <c:v>2.3400007757094037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1899813492436202</c:v>
+                  <c:v>2.0469443932954361</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5761287769084702</c:v>
+                  <c:v>1.6050323289293802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.48188300842089</c:v>
+                  <c:v>1.8659804415965593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7063396883301398</c:v>
+                  <c:v>1.9251856243827865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.24522995504852</c:v>
+                  <c:v>1.4984091414058178</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.94169654441643</c:v>
+                  <c:v>1.3934477185802236</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4131890808104299</c:v>
+                  <c:v>1.8474818215101414</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1772889132292801</c:v>
+                  <c:v>1.4755639305801969</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.7063396883301398</c:v>
+                  <c:v>1.9251856243827865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -718,6 +872,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -732,6 +887,8 @@
         <c:axId val="1535965456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -749,6 +906,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -788,6 +1001,7 @@
         <c:crossAx val="1535972112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1535972112"/>
@@ -810,7 +1024,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -938,7 +1208,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Precipitation</a:t>
+              <a:t>Presipitasi</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -1022,40 +1292,40 @@
             <c:numRef>
               <c:f>MSE!$B$6:$L$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.23892719094432799</c:v>
+                  <c:v>0.48880179106088389</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82676421291358004</c:v>
+                  <c:v>0.90926575483385497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30132702368533298</c:v>
+                  <c:v>0.54893262217264238</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.23284129933432299</c:v>
+                  <c:v>0.48253631918677686</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.114422908827278</c:v>
+                  <c:v>0.33826455449437504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32566582820308398</c:v>
+                  <c:v>0.57067138372541859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12979767858136601</c:v>
+                  <c:v>0.36027444897101157</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7286217259543395E-2</c:v>
+                  <c:v>0.31190738570855192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.10464209069839</c:v>
+                  <c:v>1.0510195481999325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.380050010503441</c:v>
+                  <c:v>0.61648196283706547</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32566582820308398</c:v>
+                  <c:v>0.57067138372541859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,6 +1338,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1082,6 +1353,8 @@
         <c:axId val="1401298768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1099,6 +1372,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1138,6 +1471,7 @@
         <c:crossAx val="1401301264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1401301264"/>
@@ -1160,7 +1494,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1288,7 +1678,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Wind Speed</a:t>
+              <a:t>Kecepatan Angin</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -1372,40 +1762,40 @@
             <c:numRef>
               <c:f>MSE!$B$7:$L$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>37.576721387183603</c:v>
+                  <c:v>6.1299854312374675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.825960349487101</c:v>
+                  <c:v>4.3388892990588159</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.184469424633701</c:v>
+                  <c:v>4.2643252015569475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.764013827484899</c:v>
+                  <c:v>5.2691568421792967</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.493054608974301</c:v>
+                  <c:v>4.9490458281343788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.219954139581699</c:v>
+                  <c:v>4.384056812996576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.311327463641803</c:v>
+                  <c:v>5.6843053633352421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.005319366786999</c:v>
+                  <c:v>6.8560425441202595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.324696942231299</c:v>
+                  <c:v>4.508292020514121</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.067059595756703</c:v>
+                  <c:v>5.7503964729187764</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19.219954139581699</c:v>
+                  <c:v>4.384056812996576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,6 +1822,8 @@
         <c:axId val="969998208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1449,6 +1841,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1488,6 +1936,7 @@
         <c:crossAx val="969994048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="969994048"/>
@@ -1510,7 +1959,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1638,7 +2143,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Wind Direction</a:t>
+              <a:t>Arah Angin</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -1722,40 +2227,40 @@
             <c:numRef>
               <c:f>MSE!$B$8:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11589.0617347925</c:v>
+                  <c:v>107.65250454491293</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9996.4358656068507</c:v>
+                  <c:v>99.982177739869471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9098.1979660016295</c:v>
+                  <c:v>95.384474449470176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6425.7866594959396</c:v>
+                  <c:v>80.161004606329257</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9343.4374916453198</c:v>
+                  <c:v>96.661458149798875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5784.4279797208101</c:v>
+                  <c:v>76.055427023459742</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3770.9918969597302</c:v>
+                  <c:v>61.408402494770456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2339.6805864247399</c:v>
+                  <c:v>48.370244845614955</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4507.92200513223</c:v>
+                  <c:v>67.141060500503187</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3015.18748514855</c:v>
+                  <c:v>54.910722861282295</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5784.4279797208101</c:v>
+                  <c:v>76.055427023459742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,6 +2287,8 @@
         <c:axId val="1461414800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1799,6 +2306,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1838,6 +2401,7 @@
         <c:crossAx val="1461421872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1461421872"/>
@@ -1860,7 +2424,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1988,7 +2608,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Visibility</a:t>
+              <a:t>Visibilitas</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -2072,40 +2692,40 @@
             <c:numRef>
               <c:f>MSE!$B$9:$L$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.9619667221801298</c:v>
+                  <c:v>1.7210365255217943</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>142.84320213884101</c:v>
+                  <c:v>11.951702897028566</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5770570663415699</c:v>
+                  <c:v>1.8913109385665727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>445.333008986599</c:v>
+                  <c:v>21.102914703580616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6895319549604499</c:v>
+                  <c:v>1.6399792544298997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.71410623715719</c:v>
+                  <c:v>1.3092388006613576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8065450609067599</c:v>
+                  <c:v>1.3440777733846951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4327010043894599</c:v>
+                  <c:v>1.1969548882014978</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.27730893701292</c:v>
+                  <c:v>1.1301809310959552</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3379658975576401</c:v>
+                  <c:v>1.1567047581633094</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.71410623715719</c:v>
+                  <c:v>1.3092388006613576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2132,6 +2752,8 @@
         <c:axId val="1082686592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2149,6 +2771,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2188,6 +2866,7 @@
         <c:crossAx val="1082681184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1082681184"/>
@@ -2210,7 +2889,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2338,7 +3073,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cloud Cover</a:t>
+              <a:t>Tutupan Awan</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -2422,40 +3157,40 @@
             <c:numRef>
               <c:f>MSE!$B$10:$L$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>359.21548502837101</c:v>
+                  <c:v>18.952980900860187</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275.58151819169501</c:v>
+                  <c:v>16.60064812565145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>391.34292884801101</c:v>
+                  <c:v>19.782389361450022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311.54627544121098</c:v>
+                  <c:v>17.650673512396374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>326.09818500833097</c:v>
+                  <c:v>18.058188862904579</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>263.07518000677402</c:v>
+                  <c:v>16.219592473510978</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210.12822023123701</c:v>
+                  <c:v>14.495800089378889</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.612554543386</c:v>
+                  <c:v>11.07305533912777</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>262.99526254784701</c:v>
+                  <c:v>16.217128677661993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>165.80056024846601</c:v>
+                  <c:v>12.876356637203942</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>263.07518000677402</c:v>
+                  <c:v>16.219592473510978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,6 +3217,8 @@
         <c:axId val="1546591280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2499,6 +3236,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2538,6 +3331,7 @@
         <c:crossAx val="1546594608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1546594608"/>
@@ -2560,7 +3354,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2688,7 +3538,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Relative Humidity</a:t>
+              <a:t>Kelembapan Relatif</a:t>
             </a:r>
             <a:endParaRPr lang="id-ID"/>
           </a:p>
@@ -2772,40 +3622,40 @@
             <c:numRef>
               <c:f>MSE!$B$11:$L$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>40.795454285133999</c:v>
+                  <c:v>6.3871319295231404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.958652724168402</c:v>
+                  <c:v>6.6301321799922208</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.800304408319498</c:v>
+                  <c:v>6.6933029520797502</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.225298614110002</c:v>
+                  <c:v>5.7641390175905718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.374954167058</c:v>
+                  <c:v>6.1135058818208394</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.444409325189902</c:v>
+                  <c:v>6.4377332443329696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38.976421528779099</c:v>
+                  <c:v>6.2431099244510424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.518191956847197</c:v>
+                  <c:v>5.9597140834814546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.717519616856997</c:v>
+                  <c:v>7.6627357788753878</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>33.528769841152503</c:v>
+                  <c:v>5.7904032537598367</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.444409325189902</c:v>
+                  <c:v>6.4377332443329696</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2832,6 +3682,8 @@
         <c:axId val="1461958320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="11"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2849,6 +3701,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Representasi Data</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2888,6 +3796,7 @@
         <c:crossAx val="1461963728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1461963728"/>
@@ -2910,7 +3819,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE</a:t>
+                </a:r>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="id-ID"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7456,15 +8421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7491,16 +8456,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7527,16 +8492,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7564,15 +8529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7599,16 +8564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7635,16 +8600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7671,16 +8636,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7707,16 +8672,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8041,16 +9006,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C36B4E6-8DBC-41E8-A961-EC40722F68AB}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="K31" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -8059,23 +9025,23 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3">
@@ -8114,309 +9080,309 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1.48945162852933</v>
-      </c>
-      <c r="C4">
-        <v>1.78025867122679</v>
-      </c>
-      <c r="D4">
-        <v>1.66729184165028</v>
-      </c>
-      <c r="E4">
-        <v>1.1767397704745599</v>
-      </c>
-      <c r="F4">
-        <v>1.4803426095762799</v>
-      </c>
-      <c r="G4">
-        <v>1.65903927076179</v>
-      </c>
-      <c r="H4">
-        <v>1.1248296962790501</v>
-      </c>
-      <c r="I4">
-        <v>0.97887791926211798</v>
-      </c>
-      <c r="J4">
-        <v>1.6432624825092801</v>
-      </c>
-      <c r="K4">
-        <v>0.95172569410147401</v>
-      </c>
-      <c r="L4">
-        <v>1.65903927076179</v>
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.220430919195892</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.3342633440317508</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.2912365552640925</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.0847763688772722</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.2166933095798136</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1.2880369834604091</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.0605798867973359</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.98938259498644809</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1.2818980000410642</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.97556429521660637</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.2880369834604091</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>3.4124135058023399</v>
-      </c>
-      <c r="C5">
-        <v>5.4756036303206104</v>
-      </c>
-      <c r="D5">
-        <v>4.1899813492436202</v>
-      </c>
-      <c r="E5">
-        <v>2.5761287769084702</v>
-      </c>
-      <c r="F5">
-        <v>3.48188300842089</v>
-      </c>
-      <c r="G5">
-        <v>3.7063396883301398</v>
-      </c>
-      <c r="H5">
-        <v>2.24522995504852</v>
-      </c>
-      <c r="I5">
-        <v>1.94169654441643</v>
-      </c>
-      <c r="J5">
-        <v>3.4131890808104299</v>
-      </c>
-      <c r="K5">
-        <v>2.1772889132292801</v>
-      </c>
-      <c r="L5">
-        <v>3.7063396883301398</v>
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.8472719090059102</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.3400007757094037</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2.0469443932954361</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.6050323289293802</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1.8659804415965593</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.9251856243827865</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.4984091414058178</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.3934477185802236</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.8474818215101414</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1.4755639305801969</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1.9251856243827865</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>0.23892719094432799</v>
-      </c>
-      <c r="C6">
-        <v>0.82676421291358004</v>
-      </c>
-      <c r="D6">
-        <v>0.30132702368533298</v>
-      </c>
-      <c r="E6">
-        <v>0.23284129933432299</v>
-      </c>
-      <c r="F6">
-        <v>0.114422908827278</v>
-      </c>
-      <c r="G6">
-        <v>0.32566582820308398</v>
-      </c>
-      <c r="H6">
-        <v>0.12979767858136601</v>
-      </c>
-      <c r="I6">
-        <v>9.7286217259543395E-2</v>
-      </c>
-      <c r="J6">
-        <v>1.10464209069839</v>
-      </c>
-      <c r="K6">
-        <v>0.380050010503441</v>
-      </c>
-      <c r="L6">
-        <v>0.32566582820308398</v>
+        <v>27</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.48880179106088389</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.90926575483385497</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.54893262217264238</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.48253631918677686</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.33826455449437504</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.57067138372541859</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.36027444897101157</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.31190738570855192</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1.0510195481999325</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.61648196283706547</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.57067138372541859</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>37.576721387183603</v>
-      </c>
-      <c r="C7">
-        <v>18.825960349487101</v>
-      </c>
-      <c r="D7">
-        <v>18.184469424633701</v>
-      </c>
-      <c r="E7">
-        <v>27.764013827484899</v>
-      </c>
-      <c r="F7">
-        <v>24.493054608974301</v>
-      </c>
-      <c r="G7">
-        <v>19.219954139581699</v>
-      </c>
-      <c r="H7">
-        <v>32.311327463641803</v>
-      </c>
-      <c r="I7">
-        <v>47.005319366786999</v>
-      </c>
-      <c r="J7">
-        <v>20.324696942231299</v>
-      </c>
-      <c r="K7">
-        <v>33.067059595756703</v>
-      </c>
-      <c r="L7">
-        <v>19.219954139581699</v>
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6.1299854312374675</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.3388892990588159</v>
+      </c>
+      <c r="D7" s="5">
+        <v>4.2643252015569475</v>
+      </c>
+      <c r="E7" s="5">
+        <v>5.2691568421792967</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.9490458281343788</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4.384056812996576</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5.6843053633352421</v>
+      </c>
+      <c r="I7" s="5">
+        <v>6.8560425441202595</v>
+      </c>
+      <c r="J7" s="5">
+        <v>4.508292020514121</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5.7503964729187764</v>
+      </c>
+      <c r="L7" s="5">
+        <v>4.384056812996576</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>11589.0617347925</v>
-      </c>
-      <c r="C8">
-        <v>9996.4358656068507</v>
-      </c>
-      <c r="D8">
-        <v>9098.1979660016295</v>
-      </c>
-      <c r="E8">
-        <v>6425.7866594959396</v>
-      </c>
-      <c r="F8">
-        <v>9343.4374916453198</v>
-      </c>
-      <c r="G8">
-        <v>5784.4279797208101</v>
-      </c>
-      <c r="H8">
-        <v>3770.9918969597302</v>
-      </c>
-      <c r="I8">
-        <v>2339.6805864247399</v>
-      </c>
-      <c r="J8">
-        <v>4507.92200513223</v>
-      </c>
-      <c r="K8">
-        <v>3015.18748514855</v>
-      </c>
-      <c r="L8">
-        <v>5784.4279797208101</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
+        <v>107.65250454491293</v>
+      </c>
+      <c r="C8" s="5">
+        <v>99.982177739869471</v>
+      </c>
+      <c r="D8" s="5">
+        <v>95.384474449470176</v>
+      </c>
+      <c r="E8" s="5">
+        <v>80.161004606329257</v>
+      </c>
+      <c r="F8" s="5">
+        <v>96.661458149798875</v>
+      </c>
+      <c r="G8" s="5">
+        <v>76.055427023459742</v>
+      </c>
+      <c r="H8" s="5">
+        <v>61.408402494770456</v>
+      </c>
+      <c r="I8" s="5">
+        <v>48.370244845614955</v>
+      </c>
+      <c r="J8" s="5">
+        <v>67.141060500503187</v>
+      </c>
+      <c r="K8" s="5">
+        <v>54.910722861282295</v>
+      </c>
+      <c r="L8" s="5">
+        <v>76.055427023459742</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>2.9619667221801298</v>
-      </c>
-      <c r="C9">
-        <v>142.84320213884101</v>
-      </c>
-      <c r="D9">
-        <v>3.5770570663415699</v>
-      </c>
-      <c r="E9">
-        <v>445.333008986599</v>
-      </c>
-      <c r="F9">
-        <v>2.6895319549604499</v>
-      </c>
-      <c r="G9">
-        <v>1.71410623715719</v>
-      </c>
-      <c r="H9">
-        <v>1.8065450609067599</v>
-      </c>
-      <c r="I9">
-        <v>1.4327010043894599</v>
-      </c>
-      <c r="J9">
-        <v>1.27730893701292</v>
-      </c>
-      <c r="K9">
-        <v>1.3379658975576401</v>
-      </c>
-      <c r="L9">
-        <v>1.71410623715719</v>
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.7210365255217943</v>
+      </c>
+      <c r="C9" s="5">
+        <v>11.951702897028566</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.8913109385665727</v>
+      </c>
+      <c r="E9" s="5">
+        <v>21.102914703580616</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.6399792544298997</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.3092388006613576</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.3440777733846951</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.1969548882014978</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.1301809310959552</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.1567047581633094</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.3092388006613576</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>359.21548502837101</v>
-      </c>
-      <c r="C10">
-        <v>275.58151819169501</v>
-      </c>
-      <c r="D10">
-        <v>391.34292884801101</v>
-      </c>
-      <c r="E10">
-        <v>311.54627544121098</v>
-      </c>
-      <c r="F10">
-        <v>326.09818500833097</v>
-      </c>
-      <c r="G10">
-        <v>263.07518000677402</v>
-      </c>
-      <c r="H10">
-        <v>210.12822023123701</v>
-      </c>
-      <c r="I10">
-        <v>122.612554543386</v>
-      </c>
-      <c r="J10">
-        <v>262.99526254784701</v>
-      </c>
-      <c r="K10">
-        <v>165.80056024846601</v>
-      </c>
-      <c r="L10">
-        <v>263.07518000677402</v>
+        <v>31</v>
+      </c>
+      <c r="B10" s="5">
+        <v>18.952980900860187</v>
+      </c>
+      <c r="C10" s="5">
+        <v>16.60064812565145</v>
+      </c>
+      <c r="D10" s="5">
+        <v>19.782389361450022</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17.650673512396374</v>
+      </c>
+      <c r="F10" s="5">
+        <v>18.058188862904579</v>
+      </c>
+      <c r="G10" s="5">
+        <v>16.219592473510978</v>
+      </c>
+      <c r="H10" s="5">
+        <v>14.495800089378889</v>
+      </c>
+      <c r="I10" s="5">
+        <v>11.07305533912777</v>
+      </c>
+      <c r="J10" s="5">
+        <v>16.217128677661993</v>
+      </c>
+      <c r="K10" s="5">
+        <v>12.876356637203942</v>
+      </c>
+      <c r="L10" s="5">
+        <v>16.219592473510978</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>40.795454285133999</v>
-      </c>
-      <c r="C11">
-        <v>43.958652724168402</v>
-      </c>
-      <c r="D11">
-        <v>44.800304408319498</v>
-      </c>
-      <c r="E11">
-        <v>33.225298614110002</v>
-      </c>
-      <c r="F11">
-        <v>37.374954167058</v>
-      </c>
-      <c r="G11">
-        <v>41.444409325189902</v>
-      </c>
-      <c r="H11">
-        <v>38.976421528779099</v>
-      </c>
-      <c r="I11">
-        <v>35.518191956847197</v>
-      </c>
-      <c r="J11">
-        <v>58.717519616856997</v>
-      </c>
-      <c r="K11">
-        <v>33.528769841152503</v>
-      </c>
-      <c r="L11">
-        <v>41.444409325189902</v>
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>6.3871319295231404</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.6301321799922208</v>
+      </c>
+      <c r="D11" s="5">
+        <v>6.6933029520797502</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5.7641390175905718</v>
+      </c>
+      <c r="F11" s="5">
+        <v>6.1135058818208394</v>
+      </c>
+      <c r="G11" s="5">
+        <v>6.4377332443329696</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6.2431099244510424</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5.9597140834814546</v>
+      </c>
+      <c r="J11" s="5">
+        <v>7.6627357788753878</v>
+      </c>
+      <c r="K11" s="5">
+        <v>5.7904032537598367</v>
+      </c>
+      <c r="L11" s="5">
+        <v>6.4377332443329696</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -8430,149 +9396,1137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18">
         <f>AVERAGE(B4:G4)</f>
-        <v>1.5421872987031717</v>
+        <v>1.239239580068205</v>
       </c>
       <c r="C18">
         <f>AVERAGE(H4:J4)</f>
-        <v>1.2489900326834829</v>
+        <v>1.1106201606082828</v>
       </c>
       <c r="D18">
         <f>AVERAGE(K4:L4)</f>
-        <v>1.305382482431632</v>
+        <v>1.1318006393385076</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
         <f>AVERAGE(B5:G5)</f>
-        <v>3.8070583265043449</v>
+        <v>1.9384025788199126</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:C25" si="0">AVERAGE(H5:J5)</f>
-        <v>2.5333718600917936</v>
+        <v>1.5797795604987275</v>
       </c>
       <c r="D19">
         <f t="shared" ref="D19:D25" si="1">AVERAGE(K5:L5)</f>
-        <v>2.94181430077971</v>
+        <v>1.7003747774814917</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B19:B25" si="2">AVERAGE(B6:G6)</f>
-        <v>0.33999141065132094</v>
+        <f t="shared" ref="B20:B25" si="2">AVERAGE(B6:G6)</f>
+        <v>0.55641207091232536</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.44390866217976649</v>
+        <v>0.57440046095983199</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0.35285791935326249</v>
+        <v>0.59357667328124197</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
-        <v>24.344028956224218</v>
+        <v>4.8892432358605804</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>33.213781257553364</v>
+        <v>5.6828799759898745</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>26.143506867669203</v>
+        <v>5.0672266429576762</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22">
         <f t="shared" si="2"/>
-        <v>8706.2246162105093</v>
+        <v>92.649507752306747</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>3539.5314961722338</v>
+        <v>58.973235946962866</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>4399.8077324346796</v>
+        <v>65.483074942371019</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
-        <v>99.853145517679891</v>
+        <v>6.6026971866314677</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>1.5055183341030467</v>
+        <v>1.2237378642273826</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>1.5260360673574151</v>
+        <v>1.2329717794123334</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
       <c r="B24">
         <f>AVERAGE(B10:G10)</f>
-        <v>321.14326208739885</v>
+        <v>17.877412206128934</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>198.57867910748999</v>
+        <v>13.928661368722885</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>214.43787012762002</v>
+        <v>14.54797455535746</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
       <c r="B25">
         <f t="shared" si="2"/>
-        <v>40.26651225399663</v>
+        <v>6.337657534223248</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>44.404044367494436</v>
+        <v>6.6218532622692949</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>37.486589583171202</v>
+        <v>6.1140682490464027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2010</v>
+      </c>
+      <c r="C28">
+        <v>2011</v>
+      </c>
+      <c r="D28">
+        <v>2012</v>
+      </c>
+      <c r="E28">
+        <v>2013</v>
+      </c>
+      <c r="F28">
+        <v>2014</v>
+      </c>
+      <c r="G28">
+        <v>2015</v>
+      </c>
+      <c r="H28">
+        <v>2012</v>
+      </c>
+      <c r="I28">
+        <v>2015</v>
+      </c>
+      <c r="J28">
+        <v>2018</v>
+      </c>
+      <c r="K28">
+        <v>2015</v>
+      </c>
+      <c r="L28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="5">
+        <v>1.48945162852933</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.78025867122679</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.66729184165028</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1.1767397704745599</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1.4803426095762799</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1.65903927076179</v>
+      </c>
+      <c r="H29" s="5">
+        <v>1.1248296962790501</v>
+      </c>
+      <c r="I29" s="5">
+        <v>0.97887791926211798</v>
+      </c>
+      <c r="J29" s="5">
+        <v>1.6432624825092801</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0.95172569410147401</v>
+      </c>
+      <c r="L29" s="5">
+        <v>1.65903927076179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="5">
+        <v>3.4124135058023399</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5.4756036303206104</v>
+      </c>
+      <c r="D30" s="5">
+        <v>4.1899813492436202</v>
+      </c>
+      <c r="E30" s="5">
+        <v>2.5761287769084702</v>
+      </c>
+      <c r="F30" s="5">
+        <v>3.48188300842089</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3.7063396883301398</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2.24522995504852</v>
+      </c>
+      <c r="I30" s="5">
+        <v>1.94169654441643</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3.4131890808104299</v>
+      </c>
+      <c r="K30" s="5">
+        <v>2.1772889132292801</v>
+      </c>
+      <c r="L30" s="5">
+        <v>3.7063396883301398</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="5">
+        <v>0.23892719094432799</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.82676421291358004</v>
+      </c>
+      <c r="D31" s="5">
+        <v>0.30132702368533298</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.23284129933432299</v>
+      </c>
+      <c r="F31" s="5">
+        <v>0.114422908827278</v>
+      </c>
+      <c r="G31" s="5">
+        <v>0.32566582820308398</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0.12979767858136601</v>
+      </c>
+      <c r="I31" s="5">
+        <v>9.7286217259543395E-2</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1.10464209069839</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0.380050010503441</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.32566582820308398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="5">
+        <v>37.576721387183603</v>
+      </c>
+      <c r="C32" s="5">
+        <v>18.825960349487101</v>
+      </c>
+      <c r="D32" s="5">
+        <v>18.184469424633701</v>
+      </c>
+      <c r="E32" s="5">
+        <v>27.764013827484899</v>
+      </c>
+      <c r="F32" s="5">
+        <v>24.493054608974301</v>
+      </c>
+      <c r="G32" s="5">
+        <v>19.219954139581699</v>
+      </c>
+      <c r="H32" s="5">
+        <v>32.311327463641803</v>
+      </c>
+      <c r="I32" s="5">
+        <v>47.005319366786999</v>
+      </c>
+      <c r="J32" s="5">
+        <v>20.324696942231299</v>
+      </c>
+      <c r="K32" s="5">
+        <v>33.067059595756703</v>
+      </c>
+      <c r="L32" s="5">
+        <v>19.219954139581699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="5">
+        <v>11589.0617347925</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9996.4358656068507</v>
+      </c>
+      <c r="D33" s="5">
+        <v>9098.1979660016295</v>
+      </c>
+      <c r="E33" s="5">
+        <v>6425.7866594959396</v>
+      </c>
+      <c r="F33" s="5">
+        <v>9343.4374916453198</v>
+      </c>
+      <c r="G33" s="5">
+        <v>5784.4279797208101</v>
+      </c>
+      <c r="H33" s="5">
+        <v>3770.9918969597302</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2339.6805864247399</v>
+      </c>
+      <c r="J33" s="5">
+        <v>4507.92200513223</v>
+      </c>
+      <c r="K33" s="5">
+        <v>3015.18748514855</v>
+      </c>
+      <c r="L33" s="5">
+        <v>5784.4279797208101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2.9619667221801298</v>
+      </c>
+      <c r="C34" s="5">
+        <v>142.84320213884101</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3.5770570663415699</v>
+      </c>
+      <c r="E34" s="5">
+        <v>445.333008986599</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2.6895319549604499</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.71410623715719</v>
+      </c>
+      <c r="H34" s="5">
+        <v>1.8065450609067599</v>
+      </c>
+      <c r="I34" s="5">
+        <v>1.4327010043894599</v>
+      </c>
+      <c r="J34" s="5">
+        <v>1.27730893701292</v>
+      </c>
+      <c r="K34" s="5">
+        <v>1.3379658975576401</v>
+      </c>
+      <c r="L34" s="5">
+        <v>1.71410623715719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="5">
+        <v>359.21548502837101</v>
+      </c>
+      <c r="C35" s="5">
+        <v>275.58151819169501</v>
+      </c>
+      <c r="D35" s="5">
+        <v>391.34292884801101</v>
+      </c>
+      <c r="E35" s="5">
+        <v>311.54627544121098</v>
+      </c>
+      <c r="F35" s="5">
+        <v>326.09818500833097</v>
+      </c>
+      <c r="G35" s="5">
+        <v>263.07518000677402</v>
+      </c>
+      <c r="H35" s="5">
+        <v>210.12822023123701</v>
+      </c>
+      <c r="I35" s="5">
+        <v>122.612554543386</v>
+      </c>
+      <c r="J35" s="5">
+        <v>262.99526254784701</v>
+      </c>
+      <c r="K35" s="5">
+        <v>165.80056024846601</v>
+      </c>
+      <c r="L35" s="5">
+        <v>263.07518000677402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="5">
+        <v>40.795454285133999</v>
+      </c>
+      <c r="C36" s="5">
+        <v>43.958652724168402</v>
+      </c>
+      <c r="D36" s="5">
+        <v>44.800304408319498</v>
+      </c>
+      <c r="E36" s="5">
+        <v>33.225298614110002</v>
+      </c>
+      <c r="F36" s="5">
+        <v>37.374954167058</v>
+      </c>
+      <c r="G36" s="5">
+        <v>41.444409325189902</v>
+      </c>
+      <c r="H36" s="5">
+        <v>38.976421528779099</v>
+      </c>
+      <c r="I36" s="5">
+        <v>35.518191956847197</v>
+      </c>
+      <c r="J36" s="5">
+        <v>58.717519616856997</v>
+      </c>
+      <c r="K36" s="5">
+        <v>33.528769841152503</v>
+      </c>
+      <c r="L36" s="5">
+        <v>41.444409325189902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>2010</v>
+      </c>
+      <c r="C40">
+        <v>2011</v>
+      </c>
+      <c r="D40">
+        <v>2012</v>
+      </c>
+      <c r="E40">
+        <v>2013</v>
+      </c>
+      <c r="F40">
+        <v>2014</v>
+      </c>
+      <c r="G40">
+        <v>2015</v>
+      </c>
+      <c r="H40">
+        <v>2012</v>
+      </c>
+      <c r="I40">
+        <v>2015</v>
+      </c>
+      <c r="J40">
+        <v>2018</v>
+      </c>
+      <c r="K40">
+        <v>2015</v>
+      </c>
+      <c r="L40">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="5">
+        <f>SQRT(B29)</f>
+        <v>1.220430919195892</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" ref="C41:L41" si="3">SQRT(C29)</f>
+        <v>1.3342633440317508</v>
+      </c>
+      <c r="D41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2912365552640925</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0847763688772722</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2166933095798136</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2880369834604091</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.0605798867973359</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="3"/>
+        <v>0.98938259498644809</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2818980000410642</v>
+      </c>
+      <c r="K41" s="5">
+        <f t="shared" si="3"/>
+        <v>0.97556429521660637</v>
+      </c>
+      <c r="L41" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2880369834604091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="5">
+        <f t="shared" ref="B42:L42" si="4">SQRT(B30)</f>
+        <v>1.8472719090059102</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3400007757094037</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="4"/>
+        <v>2.0469443932954361</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.6050323289293802</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8659804415965593</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9251856243827865</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4984091414058178</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.3934477185802236</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8474818215101414</v>
+      </c>
+      <c r="K42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.4755639305801969</v>
+      </c>
+      <c r="L42" s="5">
+        <f t="shared" si="4"/>
+        <v>1.9251856243827865</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="5">
+        <f t="shared" ref="B43:L43" si="5">SQRT(B31)</f>
+        <v>0.48880179106088389</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.90926575483385497</v>
+      </c>
+      <c r="D43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.54893262217264238</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.48253631918677686</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.33826455449437504</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.57067138372541859</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.36027444897101157</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.31190738570855192</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="5"/>
+        <v>1.0510195481999325</v>
+      </c>
+      <c r="K43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.61648196283706547</v>
+      </c>
+      <c r="L43" s="5">
+        <f t="shared" si="5"/>
+        <v>0.57067138372541859</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="5">
+        <f t="shared" ref="B44:L44" si="6">SQRT(B32)</f>
+        <v>6.1299854312374675</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="6"/>
+        <v>4.3388892990588159</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="6"/>
+        <v>4.2643252015569475</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="6"/>
+        <v>5.2691568421792967</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="6"/>
+        <v>4.9490458281343788</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="6"/>
+        <v>4.384056812996576</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="6"/>
+        <v>5.6843053633352421</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="6"/>
+        <v>6.8560425441202595</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="6"/>
+        <v>4.508292020514121</v>
+      </c>
+      <c r="K44" s="5">
+        <f t="shared" si="6"/>
+        <v>5.7503964729187764</v>
+      </c>
+      <c r="L44" s="5">
+        <f t="shared" si="6"/>
+        <v>4.384056812996576</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" s="5">
+        <f t="shared" ref="B45:L45" si="7">SQRT(B33)</f>
+        <v>107.65250454491293</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="7"/>
+        <v>99.982177739869471</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="7"/>
+        <v>95.384474449470176</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="7"/>
+        <v>80.161004606329257</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="7"/>
+        <v>96.661458149798875</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="7"/>
+        <v>76.055427023459742</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="7"/>
+        <v>61.408402494770456</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="7"/>
+        <v>48.370244845614955</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="7"/>
+        <v>67.141060500503187</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" si="7"/>
+        <v>54.910722861282295</v>
+      </c>
+      <c r="L45" s="5">
+        <f t="shared" si="7"/>
+        <v>76.055427023459742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="5">
+        <f t="shared" ref="B46:L46" si="8">SQRT(B34)</f>
+        <v>1.7210365255217943</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="8"/>
+        <v>11.951702897028566</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.8913109385665727</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="8"/>
+        <v>21.102914703580616</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.6399792544298997</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.3092388006613576</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.3440777733846951</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1969548882014978</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1301809310959552</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.1567047581633094</v>
+      </c>
+      <c r="L46" s="5">
+        <f t="shared" si="8"/>
+        <v>1.3092388006613576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="5">
+        <f t="shared" ref="B47:L47" si="9">SQRT(B35)</f>
+        <v>18.952980900860187</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="9"/>
+        <v>16.60064812565145</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="9"/>
+        <v>19.782389361450022</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="9"/>
+        <v>17.650673512396374</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="9"/>
+        <v>18.058188862904579</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="9"/>
+        <v>16.219592473510978</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="9"/>
+        <v>14.495800089378889</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="9"/>
+        <v>11.07305533912777</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="9"/>
+        <v>16.217128677661993</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="9"/>
+        <v>12.876356637203942</v>
+      </c>
+      <c r="L47" s="5">
+        <f t="shared" si="9"/>
+        <v>16.219592473510978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" ref="B48:L48" si="10">SQRT(B36)</f>
+        <v>6.3871319295231404</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="10"/>
+        <v>6.6301321799922208</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="10"/>
+        <v>6.6933029520797502</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="10"/>
+        <v>5.7641390175905718</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="10"/>
+        <v>6.1135058818208394</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="10"/>
+        <v>6.4377332443329696</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="10"/>
+        <v>6.2431099244510424</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="10"/>
+        <v>5.9597140834814546</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="10"/>
+        <v>7.6627357788753878</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="10"/>
+        <v>5.7904032537598367</v>
+      </c>
+      <c r="L48" s="5">
+        <f t="shared" si="10"/>
+        <v>6.4377332443329696</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:L4">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:L5">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:L6">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:L7">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:L8">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:L9">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:L10">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:L11">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:D25">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:D18">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:D19">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:D20">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:D21">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:D23">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:D24">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -8584,7 +10538,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:L5">
+  <conditionalFormatting sqref="B25:D25">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -8596,7 +10550,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:L6">
+  <conditionalFormatting sqref="B29:L29">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -8608,7 +10562,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:L7">
+  <conditionalFormatting sqref="B30:L30">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -8620,7 +10574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B8:L8">
+  <conditionalFormatting sqref="B31:L31">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -8632,7 +10586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B9:L9">
+  <conditionalFormatting sqref="B32:L32">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -8644,7 +10598,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B10:L10">
+  <conditionalFormatting sqref="B33:L33">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -8656,7 +10610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:L11">
+  <conditionalFormatting sqref="B34:L34">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -8668,18 +10622,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:D25">
+  <conditionalFormatting sqref="B35:L35">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8690,8 +10634,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18:D18">
-    <cfRule type="colorScale" priority="7">
+  <conditionalFormatting sqref="B36:L36">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8702,68 +10646,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19:D19">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:D20">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:D23">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:D24">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D25">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B41:L48">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8781,42 +10665,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{096BC87A-35BF-4594-BC67-696E950A0FF9}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="K13" sqref="K13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2010</v>
       </c>
@@ -8853,488 +10738,1149 @@
       <c r="N3" t="s">
         <v>22</v>
       </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>0.85766423357664201</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>0.907407407407407</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.87246376811594195</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>0.80398671096345498</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0.77428571428571402</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="1">
         <v>0.88479262672810999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="1">
         <v>0.75112917795844603</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="1">
         <v>0.93761467889908201</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="1">
         <v>0.65647810218978098</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="1">
         <v>0.85276820117623198</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="1">
         <v>0.88479262672810999</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
         <f>AVERAGE(B4:L4)</f>
         <v>0.83485302254808369</v>
       </c>
+      <c r="P4" s="6">
+        <f>AVERAGE(B4:G4)</f>
+        <v>0.85010007684621181</v>
+      </c>
+      <c r="Q4" s="6">
+        <f>AVERAGE(H4:J4)</f>
+        <v>0.78174065301576967</v>
+      </c>
+      <c r="R4" s="6">
+        <f>AVERAGE(K4:L4)</f>
+        <v>0.86878041395217098</v>
+      </c>
+      <c r="S4" s="6">
+        <f>AVERAGE(B4:L4)</f>
+        <v>0.83485302254808369</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>0.85766423357664201</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>0.90432098765432101</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>0.860869565217391</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>0.78073089700996601</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0.754285714285714</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="1">
         <v>0.88709677419354804</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="1">
         <v>0.75925925925925897</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="1">
         <v>0.93834862385321105</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="1">
         <v>0.60218978102189702</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="1">
         <v>0.86331372946663898</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="1">
         <v>0.88709677419354804</v>
       </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4">
-        <f t="shared" ref="N5:N14" si="0">AVERAGE(B5:L5)</f>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <f>AVERAGE(B5:L5)</f>
         <v>0.82683421270292146</v>
       </c>
+      <c r="P5" s="6">
+        <f t="shared" ref="P5:P14" si="0">AVERAGE(B5:G5)</f>
+        <v>0.8408280286562636</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" ref="Q5:Q14" si="1">AVERAGE(H5:J5)</f>
+        <v>0.76659922137812231</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:R14" si="2">AVERAGE(K5:L5)</f>
+        <v>0.87520525183009346</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" ref="S5:S14" si="3">AVERAGE(B5:L5)</f>
+        <v>0.82683421270292146</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>0.85766423357664201</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>0.90432098765432101</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.85797101449275304</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0.78073089700996601</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0.68571428571428505</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="1">
         <v>0.88940092165898599</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="1">
         <v>0.75745257452574499</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="1">
         <v>0.93724770642201805</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="1">
         <v>0.57481751824817495</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="1">
         <v>0.87243966741026102</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="1">
         <v>0.88940092165898599</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <f>AVERAGE(B6:L6)</f>
+        <v>0.81883279348837601</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="0"/>
+        <v>0.82930039001782552</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.75650593306531266</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.8809202945346235</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="3"/>
         <v>0.81883279348837601</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>0.86496350364963503</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>0.907407407407407</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>0.88985507246376805</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>0.86710963455149503</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0.91142857142857103</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="1">
         <v>0.90092165898617504</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="1">
         <v>0.78500451671183302</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="1">
         <v>0.93761467889908201</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="1">
         <v>0.88412408759123995</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="1">
         <v>0.85925775704725205</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="1">
         <v>0.90092165898617504</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <f>AVERAGE(B7:L7)</f>
+        <v>0.88260077706569395</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="0"/>
+        <v>0.89028097474784185</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.86891442773405159</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.8800897080167136</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="3"/>
         <v>0.88260077706569395</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>0.85036496350364899</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>0.90123456790123402</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>0.86376811594202896</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>0.764119601328903</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0.73428571428571399</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>0.87788018433179704</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="1">
         <v>0.75158084914182399</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="1">
         <v>0.83889908256880696</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="1">
         <v>0.59124087591240804</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="1">
         <v>0.77732711417562295</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="1">
         <v>0.87788018433179704</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <f>AVERAGE(B8:L8)</f>
+        <v>0.80259829576579877</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="0"/>
+        <v>0.83194219121555435</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.7272402692076797</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.82760364925370999</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="3"/>
         <v>0.80259829576579877</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>0.85401459854014505</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>0.90432098765432101</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>0.82898550724637599</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="1">
         <v>0.60132890365448499</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="1">
         <v>0.69142857142857095</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="1">
         <v>0.88479262672810999</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="1">
         <v>0.74390243902439002</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="1">
         <v>0.93944954128440294</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="1">
         <v>0.54470802919707995</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="1">
         <v>0.83938349219225294</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="1">
         <v>0.88479262672810999</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <f>AVERAGE(B9:L9)</f>
+        <v>0.79246430215256758</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="0"/>
+        <v>0.794145199208668</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74268666983529086</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.86208805946018141</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="3"/>
         <v>0.79246430215256758</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>0.85766423357664201</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>0.90123456790123402</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>0.85797101449275304</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="1">
         <v>0.800664451827242</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="1">
         <v>0.77142857142857102</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="1">
         <v>0.87788018433179704</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="1">
         <v>0.72493224932249301</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="1">
         <v>0.93688073394495397</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="1">
         <v>0.52965328467153205</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="1">
         <v>0.89677550192658695</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="1">
         <v>0.87788018433179704</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <f>AVERAGE(B10:L10)</f>
+        <v>0.82117863434141836</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="0"/>
+        <v>0.84447383725970659</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.73048875597965957</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.887327843129192</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="3"/>
         <v>0.82117863434141836</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>0.86131386861313797</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>0.92283950617283905</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>0.85507246376811596</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="1">
         <v>0.82059800664451799</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="1">
         <v>0.61142857142857099</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="1">
         <v>0.88709677419354804</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1">
         <v>0.74525745257452503</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="1">
         <v>0.94458715596330201</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="1">
         <v>0.48677007299269998</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="1">
         <v>0.82518758872439602</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="1">
         <v>0.88709677419354804</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <f>AVERAGE(B11:L11)</f>
+        <v>0.80429529411538203</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="0"/>
+        <v>0.82639153180345504</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="1"/>
+        <v>0.72553822717684235</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.85614218145897203</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="3"/>
         <v>0.80429529411538203</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>0.85766423357664201</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>0.907407407407407</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>0.88115942028985506</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="1">
         <v>0.77740863787375403</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="1">
         <v>0.70285714285714196</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <v>0.88479262672810999</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="1">
         <v>0.76196928635952998</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="1">
         <v>0.93798165137614598</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="1">
         <v>0.53147810218978098</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="1">
         <v>0.87487325086189405</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="1">
         <v>0.88479262672810999</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1">
+        <f>AVERAGE(B12:L12)</f>
+        <v>0.81839858056803372</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="0"/>
+        <v>0.83521491145548499</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.74380967997515235</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.87983293879500202</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="3"/>
         <v>0.81839858056803372</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>0.86496350364963503</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>0.92592592592592504</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>0.88985507246376805</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="1">
         <v>0.90697674418604601</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="1">
         <v>0.85142857142857098</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="1">
         <v>0.91013824884792605</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="1">
         <v>0.78590785907858995</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="1">
         <v>0.94458715596330201</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="1">
         <v>0.86085766423357601</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="1">
         <v>0.844656256337456</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="1">
         <v>0.91013824884792605</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1">
+        <f>AVERAGE(B13:L13)</f>
+        <v>0.88140320463297461</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="0"/>
+        <v>0.89154801108364523</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.86378422642515595</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.87739725259269097</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="3"/>
         <v>0.88140320463297461</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>0.87226277372262695</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>0.92592592592592504</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>0.88695652173912998</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <v>0.89700996677740796</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="1">
         <v>0.874285714285714</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="1">
         <v>0.90552995391705005</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="1">
         <v>0.78635953026196903</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="1">
         <v>0.94532110091743105</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="1">
         <v>0.81797445255474399</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="1">
         <v>0.83694990874062003</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="1">
         <v>0.90552995391705005</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <f>AVERAGE(B14:L14)</f>
+        <v>0.87764598206906075</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="0"/>
+        <v>0.89366180939464224</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.84988502791138132</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.87123993132883504</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="3"/>
         <v>0.87764598206906075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2010</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.85766423357664201</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.85766423357664201</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.85766423357664201</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.86496350364963503</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.85036496350364899</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.85401459854014505</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.85766423357664201</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.86131386861313797</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0.85766423357664201</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.86496350364963503</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.87226277372262695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <v>2011</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.907407407407407</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.90432098765432101</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.90432098765432101</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.907407407407407</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.90123456790123402</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.90432098765432101</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.90123456790123402</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.92283950617283905</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0.907407407407407</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19">
+        <v>2012</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.87246376811594195</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.860869565217391</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.85797101449275304</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.88985507246376805</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.86376811594202896</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.82898550724637599</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.85797101449275304</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.85507246376811596</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.88115942028985506</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.88985507246376805</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.88695652173912998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20">
+        <v>2013</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.80398671096345498</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.78073089700996601</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.78073089700996601</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.86710963455149503</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.764119601328903</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.60132890365448499</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.800664451827242</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.82059800664451799</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.77740863787375403</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.90697674418604601</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.89700996677740796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21">
+        <v>2014</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.77428571428571402</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.754285714285714</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.68571428571428505</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.91142857142857103</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.73428571428571399</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.69142857142857095</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.77142857142857102</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.61142857142857099</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0.70285714285714196</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.85142857142857098</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.874285714285714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22">
+        <v>2015</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.88479262672810999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.88709677419354804</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.88940092165898599</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.90092165898617504</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.87788018433179704</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.88479262672810999</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.87788018433179704</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.88709677419354804</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0.88479262672810999</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.91013824884792605</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.90552995391705005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.75112917795844603</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.75925925925925897</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.75745257452574499</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.78500451671183302</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.75158084914182399</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.74390243902439002</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.72493224932249301</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.74525745257452503</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0.76196928635952998</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.78590785907858995</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.78635953026196903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.93761467889908201</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.93834862385321105</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.93724770642201805</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.93761467889908201</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0.83889908256880696</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.93944954128440294</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.93688073394495397</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0.94458715596330201</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0.93798165137614598</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.94458715596330201</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.94532110091743105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>2018</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.65647810218978098</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.60218978102189702</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.57481751824817495</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.88412408759123995</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.59124087591240804</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.54470802919707995</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.52965328467153205</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.48677007299269998</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.53147810218978098</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.86085766423357601</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.81797445255474399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.85276820117623198</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.86331372946663898</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.87243966741026102</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.85925775704725205</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.77732711417562295</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.83938349219225294</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.89677550192658695</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.82518758872439602</v>
+      </c>
+      <c r="K26" s="1">
+        <v>0.87487325086189405</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.844656256337456</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0.83694990874062003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.88479262672810999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.88709677419354804</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.88940092165898599</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.90092165898617504</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.87788018433179704</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.88479262672810999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.87788018433179704</v>
+      </c>
+      <c r="J27" s="1">
+        <v>0.88709677419354804</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.88479262672810999</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.91013824884792605</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.90552995391705005</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:L4">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9346,7 +11892,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9358,7 +11904,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="colorScale" priority="33">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9370,7 +11916,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="colorScale" priority="32">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9382,7 +11928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="51">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9394,7 +11940,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B13">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9406,6 +11952,282 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B14">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:C14">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D14">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E14">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F14">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G14">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H14">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:I14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J14">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K14">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:N14">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C27">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:K17">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:L17">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:M17">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:M18">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:M19">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:M20">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:M21">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:M22">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -9417,7 +12239,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C14">
+  <conditionalFormatting sqref="C23:M23">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -9429,7 +12251,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D14">
+  <conditionalFormatting sqref="C24:M24">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -9441,19 +12263,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E14">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F14">
+  <conditionalFormatting sqref="C25:M25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -9465,7 +12275,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G14">
+  <conditionalFormatting sqref="C26:M26">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -9477,7 +12287,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H14">
+  <conditionalFormatting sqref="C27:M27">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -9489,62 +12299,50 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I14">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J14">
+  <conditionalFormatting sqref="P4:P14">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K4:K14">
+  <conditionalFormatting sqref="Q4:Q14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L14">
+  <conditionalFormatting sqref="R4:R14">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N14">
+  <conditionalFormatting sqref="S4:S14">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>

--- a/Draft Thesis/Final Data.xlsx
+++ b/Draft Thesis/Final Data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="329" documentId="8_{2F93C795-D332-4294-A4CE-FBD1D5C1024C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{044D8102-88C1-49DA-8E8D-056F048C2579}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{18556891-EA70-4C23-AF0A-5D4657811790}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" activeTab="1" xr2:uid="{18556891-EA70-4C23-AF0A-5D4657811790}"/>
   </bookViews>
   <sheets>
     <sheet name="MSE" sheetId="1" r:id="rId1"/>
@@ -192,6 +192,8 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,8 +203,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -872,7 +872,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1338,7 +1337,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9012,38 +9010,38 @@
       <selection activeCell="K4" sqref="K4:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-    <col min="3" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2010</v>
       </c>
@@ -9078,311 +9076,311 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="2">
         <v>1.220430919195892</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="2">
         <v>1.3342633440317508</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>1.2912365552640925</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="2">
         <v>1.0847763688772722</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <v>1.2166933095798136</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="2">
         <v>1.2880369834604091</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="2">
         <v>1.0605798867973359</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <v>0.98938259498644809</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="2">
         <v>1.2818980000410642</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <v>0.97556429521660637</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <v>1.2880369834604091</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="2">
         <v>1.8472719090059102</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="2">
         <v>2.3400007757094037</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>2.0469443932954361</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="2">
         <v>1.6050323289293802</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>1.8659804415965593</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>1.9251856243827865</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>1.4984091414058178</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>1.3934477185802236</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="2">
         <v>1.8474818215101414</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>1.4755639305801969</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>1.9251856243827865</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>0.48880179106088389</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="2">
         <v>0.90926575483385497</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>0.54893262217264238</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="2">
         <v>0.48253631918677686</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="2">
         <v>0.33826455449437504</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="2">
         <v>0.57067138372541859</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="2">
         <v>0.36027444897101157</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="2">
         <v>0.31190738570855192</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="2">
         <v>1.0510195481999325</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <v>0.61648196283706547</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="2">
         <v>0.57067138372541859</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>6.1299854312374675</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="2">
         <v>4.3388892990588159</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>4.2643252015569475</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="2">
         <v>5.2691568421792967</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="2">
         <v>4.9490458281343788</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="2">
         <v>4.384056812996576</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="2">
         <v>5.6843053633352421</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
         <v>6.8560425441202595</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="2">
         <v>4.508292020514121</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <v>5.7503964729187764</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="2">
         <v>4.384056812996576</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>107.65250454491293</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="2">
         <v>99.982177739869471</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>95.384474449470176</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>80.161004606329257</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="2">
         <v>96.661458149798875</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="2">
         <v>76.055427023459742</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="2">
         <v>61.408402494770456</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="2">
         <v>48.370244845614955</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="2">
         <v>67.141060500503187</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <v>54.910722861282295</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="2">
         <v>76.055427023459742</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>1.7210365255217943</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>11.951702897028566</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>1.8913109385665727</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>21.102914703580616</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>1.6399792544298997</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>1.3092388006613576</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="2">
         <v>1.3440777733846951</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <v>1.1969548882014978</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="2">
         <v>1.1301809310959552</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <v>1.1567047581633094</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="2">
         <v>1.3092388006613576</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>18.952980900860187</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="2">
         <v>16.60064812565145</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>19.782389361450022</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="2">
         <v>17.650673512396374</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="2">
         <v>18.058188862904579</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="2">
         <v>16.219592473510978</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="2">
         <v>14.495800089378889</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="2">
         <v>11.07305533912777</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="2">
         <v>16.217128677661993</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <v>12.876356637203942</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="2">
         <v>16.219592473510978</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>6.3871319295231404</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>6.6301321799922208</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>6.6933029520797502</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>5.7641390175905718</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>6.1135058818208394</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>6.4377332443329696</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <v>6.2431099244510424</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="2">
         <v>5.9597140834814546</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="2">
         <v>7.6627357788753878</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="2">
         <v>5.7904032537598367</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="2">
         <v>6.4377332443329696</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -9396,7 +9394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -9413,7 +9411,7 @@
         <v>1.1318006393385076</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -9430,7 +9428,7 @@
         <v>1.7003747774814917</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -9447,7 +9445,7 @@
         <v>0.59357667328124197</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -9464,7 +9462,7 @@
         <v>5.0672266429576762</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -9481,7 +9479,7 @@
         <v>65.483074942371019</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -9498,7 +9496,7 @@
         <v>1.2329717794123334</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9515,7 +9513,7 @@
         <v>14.54797455535746</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -9532,26 +9530,26 @@
         <v>6.1140682490464027</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="2" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="4" t="s">
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>2010</v>
       </c>
@@ -9586,330 +9584,330 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="2">
         <v>1.48945162852933</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="2">
         <v>1.78025867122679</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="2">
         <v>1.66729184165028</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="2">
         <v>1.1767397704745599</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="2">
         <v>1.4803426095762799</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="2">
         <v>1.65903927076179</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2">
         <v>1.1248296962790501</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="2">
         <v>0.97887791926211798</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="2">
         <v>1.6432624825092801</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="2">
         <v>0.95172569410147401</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="2">
         <v>1.65903927076179</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="2">
         <v>3.4124135058023399</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="2">
         <v>5.4756036303206104</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="2">
         <v>4.1899813492436202</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="2">
         <v>2.5761287769084702</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="2">
         <v>3.48188300842089</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="2">
         <v>3.7063396883301398</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="2">
         <v>2.24522995504852</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="2">
         <v>1.94169654441643</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="2">
         <v>3.4131890808104299</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="2">
         <v>2.1772889132292801</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="2">
         <v>3.7063396883301398</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="2">
         <v>0.23892719094432799</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="2">
         <v>0.82676421291358004</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="2">
         <v>0.30132702368533298</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="2">
         <v>0.23284129933432299</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="2">
         <v>0.114422908827278</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="2">
         <v>0.32566582820308398</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="2">
         <v>0.12979767858136601</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <v>9.7286217259543395E-2</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <v>1.10464209069839</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="2">
         <v>0.380050010503441</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="2">
         <v>0.32566582820308398</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="2">
         <v>37.576721387183603</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="2">
         <v>18.825960349487101</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="2">
         <v>18.184469424633701</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="2">
         <v>27.764013827484899</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="2">
         <v>24.493054608974301</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="2">
         <v>19.219954139581699</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="2">
         <v>32.311327463641803</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="2">
         <v>47.005319366786999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="2">
         <v>20.324696942231299</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="2">
         <v>33.067059595756703</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="2">
         <v>19.219954139581699</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="2">
         <v>11589.0617347925</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="2">
         <v>9996.4358656068507</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="2">
         <v>9098.1979660016295</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="2">
         <v>6425.7866594959396</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="2">
         <v>9343.4374916453198</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="2">
         <v>5784.4279797208101</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="2">
         <v>3770.9918969597302</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="2">
         <v>2339.6805864247399</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="2">
         <v>4507.92200513223</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="2">
         <v>3015.18748514855</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="2">
         <v>5784.4279797208101</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="2">
         <v>2.9619667221801298</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="2">
         <v>142.84320213884101</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="2">
         <v>3.5770570663415699</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="2">
         <v>445.333008986599</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="2">
         <v>2.6895319549604499</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="2">
         <v>1.71410623715719</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="2">
         <v>1.8065450609067599</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="2">
         <v>1.4327010043894599</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" s="2">
         <v>1.27730893701292</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="2">
         <v>1.3379658975576401</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="2">
         <v>1.71410623715719</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="2">
         <v>359.21548502837101</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="2">
         <v>275.58151819169501</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="2">
         <v>391.34292884801101</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="2">
         <v>311.54627544121098</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="2">
         <v>326.09818500833097</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="2">
         <v>263.07518000677402</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="2">
         <v>210.12822023123701</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="2">
         <v>122.612554543386</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="2">
         <v>262.99526254784701</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="2">
         <v>165.80056024846601</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="2">
         <v>263.07518000677402</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="2">
         <v>40.795454285133999</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="2">
         <v>43.958652724168402</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="2">
         <v>44.800304408319498</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="2">
         <v>33.225298614110002</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="2">
         <v>37.374954167058</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <v>41.444409325189902</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="2">
         <v>38.976421528779099</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="2">
         <v>35.518191956847197</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="2">
         <v>58.717519616856997</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="2">
         <v>33.528769841152503</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="2">
         <v>41.444409325189902</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="2" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="3" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="4" t="s">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="4"/>
+      <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>2010</v>
       </c>
@@ -9944,409 +9942,409 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="2">
         <f>SQRT(B29)</f>
         <v>1.220430919195892</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="2">
         <f t="shared" ref="C41:L41" si="3">SQRT(C29)</f>
         <v>1.3342633440317508</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="2">
         <f t="shared" si="3"/>
         <v>1.2912365552640925</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="2">
         <f t="shared" si="3"/>
         <v>1.0847763688772722</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="2">
         <f t="shared" si="3"/>
         <v>1.2166933095798136</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="2">
         <f t="shared" si="3"/>
         <v>1.2880369834604091</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="2">
         <f t="shared" si="3"/>
         <v>1.0605798867973359</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="2">
         <f t="shared" si="3"/>
         <v>0.98938259498644809</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" s="2">
         <f t="shared" si="3"/>
         <v>1.2818980000410642</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="2">
         <f t="shared" si="3"/>
         <v>0.97556429521660637</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="2">
         <f t="shared" si="3"/>
         <v>1.2880369834604091</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="2">
         <f t="shared" ref="B42:L42" si="4">SQRT(B30)</f>
         <v>1.8472719090059102</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="2">
         <f t="shared" si="4"/>
         <v>2.3400007757094037</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="2">
         <f t="shared" si="4"/>
         <v>2.0469443932954361</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="2">
         <f t="shared" si="4"/>
         <v>1.6050323289293802</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>1.8659804415965593</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="2">
         <f t="shared" si="4"/>
         <v>1.9251856243827865</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="2">
         <f t="shared" si="4"/>
         <v>1.4984091414058178</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="2">
         <f t="shared" si="4"/>
         <v>1.3934477185802236</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" s="2">
         <f t="shared" si="4"/>
         <v>1.8474818215101414</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="2">
         <f t="shared" si="4"/>
         <v>1.4755639305801969</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="2">
         <f t="shared" si="4"/>
         <v>1.9251856243827865</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="2">
         <f t="shared" ref="B43:L43" si="5">SQRT(B31)</f>
         <v>0.48880179106088389</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="2">
         <f t="shared" si="5"/>
         <v>0.90926575483385497</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="2">
         <f t="shared" si="5"/>
         <v>0.54893262217264238</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="2">
         <f t="shared" si="5"/>
         <v>0.48253631918677686</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="2">
         <f t="shared" si="5"/>
         <v>0.33826455449437504</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <f t="shared" si="5"/>
         <v>0.57067138372541859</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="2">
         <f t="shared" si="5"/>
         <v>0.36027444897101157</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="2">
         <f t="shared" si="5"/>
         <v>0.31190738570855192</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" s="2">
         <f t="shared" si="5"/>
         <v>1.0510195481999325</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="2">
         <f t="shared" si="5"/>
         <v>0.61648196283706547</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="2">
         <f t="shared" si="5"/>
         <v>0.57067138372541859</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="2">
         <f t="shared" ref="B44:L44" si="6">SQRT(B32)</f>
         <v>6.1299854312374675</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="2">
         <f t="shared" si="6"/>
         <v>4.3388892990588159</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="2">
         <f t="shared" si="6"/>
         <v>4.2643252015569475</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="2">
         <f t="shared" si="6"/>
         <v>5.2691568421792967</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="2">
         <f t="shared" si="6"/>
         <v>4.9490458281343788</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <f t="shared" si="6"/>
         <v>4.384056812996576</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="2">
         <f t="shared" si="6"/>
         <v>5.6843053633352421</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="2">
         <f t="shared" si="6"/>
         <v>6.8560425441202595</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="2">
         <f t="shared" si="6"/>
         <v>4.508292020514121</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="2">
         <f t="shared" si="6"/>
         <v>5.7503964729187764</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="2">
         <f t="shared" si="6"/>
         <v>4.384056812996576</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="2">
         <f t="shared" ref="B45:L45" si="7">SQRT(B33)</f>
         <v>107.65250454491293</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="2">
         <f t="shared" si="7"/>
         <v>99.982177739869471</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="2">
         <f t="shared" si="7"/>
         <v>95.384474449470176</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="2">
         <f t="shared" si="7"/>
         <v>80.161004606329257</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="2">
         <f t="shared" si="7"/>
         <v>96.661458149798875</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="2">
         <f t="shared" si="7"/>
         <v>76.055427023459742</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="2">
         <f t="shared" si="7"/>
         <v>61.408402494770456</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="2">
         <f t="shared" si="7"/>
         <v>48.370244845614955</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="2">
         <f t="shared" si="7"/>
         <v>67.141060500503187</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="2">
         <f t="shared" si="7"/>
         <v>54.910722861282295</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="2">
         <f t="shared" si="7"/>
         <v>76.055427023459742</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="2">
         <f t="shared" ref="B46:L46" si="8">SQRT(B34)</f>
         <v>1.7210365255217943</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="2">
         <f t="shared" si="8"/>
         <v>11.951702897028566</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="2">
         <f t="shared" si="8"/>
         <v>1.8913109385665727</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="2">
         <f t="shared" si="8"/>
         <v>21.102914703580616</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="2">
         <f t="shared" si="8"/>
         <v>1.6399792544298997</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="2">
         <f t="shared" si="8"/>
         <v>1.3092388006613576</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="2">
         <f t="shared" si="8"/>
         <v>1.3440777733846951</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="2">
         <f t="shared" si="8"/>
         <v>1.1969548882014978</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" s="2">
         <f t="shared" si="8"/>
         <v>1.1301809310959552</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="2">
         <f t="shared" si="8"/>
         <v>1.1567047581633094</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="2">
         <f t="shared" si="8"/>
         <v>1.3092388006613576</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="2">
         <f t="shared" ref="B47:L47" si="9">SQRT(B35)</f>
         <v>18.952980900860187</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="2">
         <f t="shared" si="9"/>
         <v>16.60064812565145</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="2">
         <f t="shared" si="9"/>
         <v>19.782389361450022</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="2">
         <f t="shared" si="9"/>
         <v>17.650673512396374</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="2">
         <f t="shared" si="9"/>
         <v>18.058188862904579</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="2">
         <f t="shared" si="9"/>
         <v>16.219592473510978</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="2">
         <f t="shared" si="9"/>
         <v>14.495800089378889</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="2">
         <f t="shared" si="9"/>
         <v>11.07305533912777</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="2">
         <f t="shared" si="9"/>
         <v>16.217128677661993</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="2">
         <f t="shared" si="9"/>
         <v>12.876356637203942</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="2">
         <f t="shared" si="9"/>
         <v>16.219592473510978</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="2">
         <f t="shared" ref="B48:L48" si="10">SQRT(B36)</f>
         <v>6.3871319295231404</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="2">
         <f t="shared" si="10"/>
         <v>6.6301321799922208</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="2">
         <f t="shared" si="10"/>
         <v>6.6933029520797502</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="2">
         <f t="shared" si="10"/>
         <v>5.7641390175905718</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="2">
         <f t="shared" si="10"/>
         <v>6.1135058818208394</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="2">
         <f t="shared" si="10"/>
         <v>6.4377332443329696</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="2">
         <f t="shared" si="10"/>
         <v>6.2431099244510424</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="2">
         <f t="shared" si="10"/>
         <v>5.9597140834814546</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="2">
         <f t="shared" si="10"/>
         <v>7.6627357788753878</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="2">
         <f t="shared" si="10"/>
         <v>5.7904032537598367</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="2">
         <f t="shared" si="10"/>
         <v>6.4377332443329696</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="B39:G39"/>
     <mergeCell ref="H39:J39"/>
     <mergeCell ref="K39:L39"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:L4">
     <cfRule type="colorScale" priority="34">
@@ -10671,37 +10669,37 @@
       <selection activeCell="K13" sqref="K13:L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2010</v>
       </c>
@@ -10751,7 +10749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -10790,27 +10788,27 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1">
+        <f t="shared" ref="N4:N14" si="0">AVERAGE(B4:L4)</f>
+        <v>0.83485302254808369</v>
+      </c>
+      <c r="P4" s="3">
+        <f>AVERAGE(B4:G4)</f>
+        <v>0.85010007684621181</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>AVERAGE(H4:J4)</f>
+        <v>0.78174065301576967</v>
+      </c>
+      <c r="R4" s="3">
+        <f>AVERAGE(K4:L4)</f>
+        <v>0.86878041395217098</v>
+      </c>
+      <c r="S4" s="3">
         <f>AVERAGE(B4:L4)</f>
         <v>0.83485302254808369</v>
       </c>
-      <c r="P4" s="6">
-        <f>AVERAGE(B4:G4)</f>
-        <v>0.85010007684621181</v>
-      </c>
-      <c r="Q4" s="6">
-        <f>AVERAGE(H4:J4)</f>
-        <v>0.78174065301576967</v>
-      </c>
-      <c r="R4" s="6">
-        <f>AVERAGE(K4:L4)</f>
-        <v>0.86878041395217098</v>
-      </c>
-      <c r="S4" s="6">
-        <f>AVERAGE(B4:L4)</f>
-        <v>0.83485302254808369</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -10849,27 +10847,27 @@
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <f>AVERAGE(B5:L5)</f>
+        <f t="shared" si="0"/>
         <v>0.82683421270292146</v>
       </c>
-      <c r="P5" s="6">
-        <f t="shared" ref="P5:P14" si="0">AVERAGE(B5:G5)</f>
+      <c r="P5" s="3">
+        <f t="shared" ref="P5:P14" si="1">AVERAGE(B5:G5)</f>
         <v>0.8408280286562636</v>
       </c>
-      <c r="Q5" s="6">
-        <f t="shared" ref="Q5:Q14" si="1">AVERAGE(H5:J5)</f>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:Q14" si="2">AVERAGE(H5:J5)</f>
         <v>0.76659922137812231</v>
       </c>
-      <c r="R5" s="6">
-        <f t="shared" ref="R5:R14" si="2">AVERAGE(K5:L5)</f>
+      <c r="R5" s="3">
+        <f t="shared" ref="R5:R14" si="3">AVERAGE(K5:L5)</f>
         <v>0.87520525183009346</v>
       </c>
-      <c r="S5" s="6">
-        <f t="shared" ref="S5:S14" si="3">AVERAGE(B5:L5)</f>
+      <c r="S5" s="3">
+        <f t="shared" ref="S5:S14" si="4">AVERAGE(B5:L5)</f>
         <v>0.82683421270292146</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -10908,27 +10906,27 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <f>AVERAGE(B6:L6)</f>
+        <f t="shared" si="0"/>
         <v>0.81883279348837601</v>
       </c>
-      <c r="P6" s="6">
-        <f t="shared" si="0"/>
+      <c r="P6" s="3">
+        <f t="shared" si="1"/>
         <v>0.82930039001782552</v>
       </c>
-      <c r="Q6" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q6" s="3">
+        <f t="shared" si="2"/>
         <v>0.75650593306531266</v>
       </c>
-      <c r="R6" s="6">
-        <f t="shared" si="2"/>
+      <c r="R6" s="3">
+        <f t="shared" si="3"/>
         <v>0.8809202945346235</v>
       </c>
-      <c r="S6" s="6">
-        <f t="shared" si="3"/>
+      <c r="S6" s="3">
+        <f t="shared" si="4"/>
         <v>0.81883279348837601</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -10967,27 +10965,27 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <f>AVERAGE(B7:L7)</f>
+        <f t="shared" si="0"/>
         <v>0.88260077706569395</v>
       </c>
-      <c r="P7" s="6">
-        <f t="shared" si="0"/>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
         <v>0.89028097474784185</v>
       </c>
-      <c r="Q7" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q7" s="3">
+        <f t="shared" si="2"/>
         <v>0.86891442773405159</v>
       </c>
-      <c r="R7" s="6">
-        <f t="shared" si="2"/>
+      <c r="R7" s="3">
+        <f t="shared" si="3"/>
         <v>0.8800897080167136</v>
       </c>
-      <c r="S7" s="6">
-        <f t="shared" si="3"/>
+      <c r="S7" s="3">
+        <f t="shared" si="4"/>
         <v>0.88260077706569395</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -11026,27 +11024,27 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <f>AVERAGE(B8:L8)</f>
+        <f t="shared" si="0"/>
         <v>0.80259829576579877</v>
       </c>
-      <c r="P8" s="6">
-        <f t="shared" si="0"/>
+      <c r="P8" s="3">
+        <f t="shared" si="1"/>
         <v>0.83194219121555435</v>
       </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q8" s="3">
+        <f t="shared" si="2"/>
         <v>0.7272402692076797</v>
       </c>
-      <c r="R8" s="6">
-        <f t="shared" si="2"/>
+      <c r="R8" s="3">
+        <f t="shared" si="3"/>
         <v>0.82760364925370999</v>
       </c>
-      <c r="S8" s="6">
-        <f t="shared" si="3"/>
+      <c r="S8" s="3">
+        <f t="shared" si="4"/>
         <v>0.80259829576579877</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -11085,27 +11083,27 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
-        <f>AVERAGE(B9:L9)</f>
+        <f t="shared" si="0"/>
         <v>0.79246430215256758</v>
       </c>
-      <c r="P9" s="6">
-        <f t="shared" si="0"/>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
         <v>0.794145199208668</v>
       </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q9" s="3">
+        <f t="shared" si="2"/>
         <v>0.74268666983529086</v>
       </c>
-      <c r="R9" s="6">
-        <f t="shared" si="2"/>
+      <c r="R9" s="3">
+        <f t="shared" si="3"/>
         <v>0.86208805946018141</v>
       </c>
-      <c r="S9" s="6">
-        <f t="shared" si="3"/>
+      <c r="S9" s="3">
+        <f t="shared" si="4"/>
         <v>0.79246430215256758</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -11144,27 +11142,27 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1">
-        <f>AVERAGE(B10:L10)</f>
+        <f t="shared" si="0"/>
         <v>0.82117863434141836</v>
       </c>
-      <c r="P10" s="6">
-        <f t="shared" si="0"/>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
         <v>0.84447383725970659</v>
       </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q10" s="3">
+        <f t="shared" si="2"/>
         <v>0.73048875597965957</v>
       </c>
-      <c r="R10" s="6">
-        <f t="shared" si="2"/>
+      <c r="R10" s="3">
+        <f t="shared" si="3"/>
         <v>0.887327843129192</v>
       </c>
-      <c r="S10" s="6">
-        <f t="shared" si="3"/>
+      <c r="S10" s="3">
+        <f t="shared" si="4"/>
         <v>0.82117863434141836</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -11203,27 +11201,27 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <f>AVERAGE(B11:L11)</f>
+        <f t="shared" si="0"/>
         <v>0.80429529411538203</v>
       </c>
-      <c r="P11" s="6">
-        <f t="shared" si="0"/>
+      <c r="P11" s="3">
+        <f t="shared" si="1"/>
         <v>0.82639153180345504</v>
       </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q11" s="3">
+        <f t="shared" si="2"/>
         <v>0.72553822717684235</v>
       </c>
-      <c r="R11" s="6">
-        <f t="shared" si="2"/>
+      <c r="R11" s="3">
+        <f t="shared" si="3"/>
         <v>0.85614218145897203</v>
       </c>
-      <c r="S11" s="6">
-        <f t="shared" si="3"/>
+      <c r="S11" s="3">
+        <f t="shared" si="4"/>
         <v>0.80429529411538203</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -11262,27 +11260,27 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
-        <f>AVERAGE(B12:L12)</f>
+        <f t="shared" si="0"/>
         <v>0.81839858056803372</v>
       </c>
-      <c r="P12" s="6">
-        <f t="shared" si="0"/>
+      <c r="P12" s="3">
+        <f t="shared" si="1"/>
         <v>0.83521491145548499</v>
       </c>
-      <c r="Q12" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q12" s="3">
+        <f t="shared" si="2"/>
         <v>0.74380967997515235</v>
       </c>
-      <c r="R12" s="6">
-        <f t="shared" si="2"/>
+      <c r="R12" s="3">
+        <f t="shared" si="3"/>
         <v>0.87983293879500202</v>
       </c>
-      <c r="S12" s="6">
-        <f t="shared" si="3"/>
+      <c r="S12" s="3">
+        <f t="shared" si="4"/>
         <v>0.81839858056803372</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -11321,27 +11319,27 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <f>AVERAGE(B13:L13)</f>
+        <f t="shared" si="0"/>
         <v>0.88140320463297461</v>
       </c>
-      <c r="P13" s="6">
-        <f t="shared" si="0"/>
+      <c r="P13" s="3">
+        <f t="shared" si="1"/>
         <v>0.89154801108364523</v>
       </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q13" s="3">
+        <f t="shared" si="2"/>
         <v>0.86378422642515595</v>
       </c>
-      <c r="R13" s="6">
-        <f t="shared" si="2"/>
+      <c r="R13" s="3">
+        <f t="shared" si="3"/>
         <v>0.87739725259269097</v>
       </c>
-      <c r="S13" s="6">
-        <f t="shared" si="3"/>
+      <c r="S13" s="3">
+        <f t="shared" si="4"/>
         <v>0.88140320463297461</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -11380,27 +11378,27 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
-        <f>AVERAGE(B14:L14)</f>
+        <f t="shared" si="0"/>
         <v>0.87764598206906075</v>
       </c>
-      <c r="P14" s="6">
-        <f t="shared" si="0"/>
+      <c r="P14" s="3">
+        <f t="shared" si="1"/>
         <v>0.89366180939464224</v>
       </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="3">
+        <f t="shared" si="2"/>
         <v>0.84988502791138132</v>
       </c>
-      <c r="R14" s="6">
-        <f t="shared" si="2"/>
+      <c r="R14" s="3">
+        <f t="shared" si="3"/>
         <v>0.87123993132883504</v>
       </c>
-      <c r="S14" s="6">
-        <f t="shared" si="3"/>
+      <c r="S14" s="3">
+        <f t="shared" si="4"/>
         <v>0.87764598206906075</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>13</v>
       </c>
@@ -11435,8 +11433,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B17">
@@ -11476,8 +11474,8 @@
         <v>0.87226277372262695</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18">
         <v>2011</v>
       </c>
@@ -11515,8 +11513,8 @@
         <v>0.92592592592592504</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19">
         <v>2012</v>
       </c>
@@ -11554,8 +11552,8 @@
         <v>0.88695652173912998</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20">
         <v>2013</v>
       </c>
@@ -11593,8 +11591,8 @@
         <v>0.89700996677740796</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21">
         <v>2014</v>
       </c>
@@ -11632,8 +11630,8 @@
         <v>0.874285714285714</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22">
         <v>2015</v>
       </c>
@@ -11671,8 +11669,8 @@
         <v>0.90552995391705005</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B23">
@@ -11712,8 +11710,8 @@
         <v>0.78635953026196903</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
       <c r="B24">
         <v>2015</v>
       </c>
@@ -11751,8 +11749,8 @@
         <v>0.94532110091743105</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
       <c r="B25">
         <v>2018</v>
       </c>
@@ -11790,8 +11788,8 @@
         <v>0.81797445255474399</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B26">
@@ -11831,8 +11829,8 @@
         <v>0.83694990874062003</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
       <c r="B27">
         <v>2020</v>
       </c>
